--- a/datamining x nlp.xlsx
+++ b/datamining x nlp.xlsx
@@ -516,10 +516,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -541,52 +541,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -600,49 +562,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="15"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="Arial"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Arial"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -661,15 +585,48 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -690,6 +647,49 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -700,7 +700,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -712,7 +736,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -724,7 +772,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -736,19 +820,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -760,7 +844,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -772,115 +874,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -904,16 +904,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -923,6 +923,32 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -943,42 +969,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -994,148 +994,148 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1401,13 +1401,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr>
+  <sheetPr filterMode="1">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:L91"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C92" sqref="C92"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.4285714285714" defaultRowHeight="15.75" customHeight="1"/>
@@ -1459,7 +1459,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" ht="12.75" spans="1:12">
+    <row r="2" ht="12.75" hidden="1" spans="1:12">
       <c r="A2" s="1" t="s">
         <v>12</v>
       </c>
@@ -1535,7 +1535,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" ht="12.75" spans="1:12">
+    <row r="4" ht="12.75" hidden="1" spans="1:12">
       <c r="A4" s="1" t="s">
         <v>21</v>
       </c>
@@ -1573,7 +1573,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" ht="12.75" spans="1:12">
+    <row r="5" ht="12.75" hidden="1" spans="1:12">
       <c r="A5" s="1" t="s">
         <v>23</v>
       </c>
@@ -1611,7 +1611,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" ht="12.75" spans="1:12">
+    <row r="6" ht="12.75" hidden="1" spans="1:12">
       <c r="A6" s="1" t="s">
         <v>26</v>
       </c>
@@ -1687,7 +1687,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" ht="12.75" hidden="1" spans="1:12">
       <c r="A8" s="1" t="s">
         <v>33</v>
       </c>
@@ -1725,7 +1725,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" ht="12.75" hidden="1" spans="1:12">
       <c r="A9" s="1" t="s">
         <v>37</v>
       </c>
@@ -1763,7 +1763,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" ht="12.75" hidden="1" spans="1:12">
       <c r="A10" s="1" t="s">
         <v>38</v>
       </c>
@@ -1801,7 +1801,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" ht="12.75" hidden="1" spans="1:12">
       <c r="A11" s="1" t="s">
         <v>41</v>
       </c>
@@ -1839,7 +1839,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" ht="12.75" hidden="1" spans="1:12">
       <c r="A12" s="1" t="s">
         <v>44</v>
       </c>
@@ -1877,7 +1877,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" ht="12.75" hidden="1" spans="1:12">
       <c r="A13" s="1" t="s">
         <v>46</v>
       </c>
@@ -1915,7 +1915,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" ht="12.75" hidden="1" spans="1:12">
       <c r="A14" s="1" t="s">
         <v>50</v>
       </c>
@@ -1953,7 +1953,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" ht="12.75" hidden="1" spans="1:12">
       <c r="A15" s="1" t="s">
         <v>51</v>
       </c>
@@ -1991,7 +1991,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" ht="12.75" hidden="1" spans="1:12">
       <c r="A16" s="1" t="s">
         <v>53</v>
       </c>
@@ -2029,7 +2029,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:12">
+    <row r="17" ht="12.75" spans="1:12">
       <c r="A17" s="1" t="s">
         <v>56</v>
       </c>
@@ -2067,7 +2067,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:12">
+    <row r="18" ht="12.75" hidden="1" spans="1:12">
       <c r="A18" s="1" t="s">
         <v>57</v>
       </c>
@@ -2105,7 +2105,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:12">
+    <row r="19" ht="12.75" hidden="1" spans="1:12">
       <c r="A19" s="1" t="s">
         <v>60</v>
       </c>
@@ -2143,7 +2143,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:12">
+    <row r="20" ht="12.75" hidden="1" spans="1:12">
       <c r="A20" s="1" t="s">
         <v>61</v>
       </c>
@@ -2181,7 +2181,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:12">
+    <row r="21" ht="12.75" hidden="1" spans="1:12">
       <c r="A21" s="1" t="s">
         <v>63</v>
       </c>
@@ -2219,7 +2219,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:12">
+    <row r="22" ht="12.75" hidden="1" spans="1:12">
       <c r="A22" s="1" t="s">
         <v>64</v>
       </c>
@@ -2257,7 +2257,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:12">
+    <row r="23" ht="12.75" hidden="1" spans="1:12">
       <c r="A23" s="1" t="s">
         <v>65</v>
       </c>
@@ -2295,7 +2295,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:12">
+    <row r="24" ht="12.75" hidden="1" spans="1:12">
       <c r="A24" s="1" t="s">
         <v>66</v>
       </c>
@@ -2333,7 +2333,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:12">
+    <row r="25" ht="12.75" hidden="1" spans="1:12">
       <c r="A25" s="1" t="s">
         <v>69</v>
       </c>
@@ -2371,7 +2371,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:12">
+    <row r="26" ht="12.75" spans="1:12">
       <c r="A26" s="1" t="s">
         <v>71</v>
       </c>
@@ -2409,7 +2409,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:12">
+    <row r="27" ht="12.75" hidden="1" spans="1:12">
       <c r="A27" s="1" t="s">
         <v>72</v>
       </c>
@@ -2447,7 +2447,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="1:12">
+    <row r="28" ht="12.75" hidden="1" spans="1:12">
       <c r="A28" s="1" t="s">
         <v>73</v>
       </c>
@@ -2561,7 +2561,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="31" ht="12.75" spans="1:12">
+    <row r="31" ht="12.75" hidden="1" spans="1:12">
       <c r="A31" s="1" t="s">
         <v>78</v>
       </c>
@@ -2599,7 +2599,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:12">
+    <row r="32" ht="12.75" hidden="1" spans="1:12">
       <c r="A32" s="1" t="s">
         <v>81</v>
       </c>
@@ -2637,7 +2637,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:12">
+    <row r="33" ht="12.75" spans="1:12">
       <c r="A33" s="1" t="s">
         <v>82</v>
       </c>
@@ -2675,7 +2675,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="34" ht="12.75" spans="1:12">
+    <row r="34" ht="12.75" hidden="1" spans="1:12">
       <c r="A34" s="1" t="s">
         <v>83</v>
       </c>
@@ -2789,7 +2789,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="37" spans="1:12">
+    <row r="37" ht="12.75" hidden="1" spans="1:12">
       <c r="A37" s="1" t="s">
         <v>87</v>
       </c>
@@ -2827,7 +2827,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38" ht="12.75" spans="1:12">
+    <row r="38" ht="12.75" hidden="1" spans="1:12">
       <c r="A38" s="1" t="s">
         <v>88</v>
       </c>
@@ -2903,7 +2903,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="40" ht="12.75" spans="1:12">
+    <row r="40" ht="12.75" hidden="1" spans="1:12">
       <c r="A40" s="1" t="s">
         <v>92</v>
       </c>
@@ -2941,7 +2941,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="41" spans="1:12">
+    <row r="41" ht="12.75" hidden="1" spans="1:12">
       <c r="A41" s="1" t="s">
         <v>93</v>
       </c>
@@ -2979,7 +2979,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="42" spans="1:12">
+    <row r="42" ht="12.75" hidden="1" spans="1:12">
       <c r="A42" s="1" t="s">
         <v>94</v>
       </c>
@@ -3017,7 +3017,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="43" spans="1:12">
+    <row r="43" ht="12.75" hidden="1" spans="1:12">
       <c r="A43" s="1" t="s">
         <v>95</v>
       </c>
@@ -3055,7 +3055,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="44" spans="1:12">
+    <row r="44" ht="12.75" hidden="1" spans="1:12">
       <c r="A44" s="1" t="s">
         <v>96</v>
       </c>
@@ -3093,7 +3093,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="45" spans="1:12">
+    <row r="45" ht="12.75" hidden="1" spans="1:12">
       <c r="A45" s="1" t="s">
         <v>97</v>
       </c>
@@ -3131,7 +3131,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="46" spans="1:12">
+    <row r="46" ht="12.75" hidden="1" spans="1:12">
       <c r="A46" s="1" t="s">
         <v>100</v>
       </c>
@@ -3169,7 +3169,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="47" ht="12.75" spans="1:12">
+    <row r="47" ht="12.75" hidden="1" spans="1:12">
       <c r="A47" s="1" t="s">
         <v>101</v>
       </c>
@@ -3207,7 +3207,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="48" ht="12.75" spans="1:12">
+    <row r="48" ht="12.75" hidden="1" spans="1:12">
       <c r="A48" s="1" t="s">
         <v>103</v>
       </c>
@@ -3245,7 +3245,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="49" ht="12.75" spans="1:12">
+    <row r="49" ht="12.75" hidden="1" spans="1:12">
       <c r="A49" s="1" t="s">
         <v>105</v>
       </c>
@@ -3283,7 +3283,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="50" spans="1:12">
+    <row r="50" ht="12.75" hidden="1" spans="1:12">
       <c r="A50" s="1" t="s">
         <v>106</v>
       </c>
@@ -3321,7 +3321,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="51" spans="1:12">
+    <row r="51" ht="12.75" hidden="1" spans="1:12">
       <c r="A51" s="1" t="s">
         <v>108</v>
       </c>
@@ -3359,7 +3359,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="1:12">
+    <row r="52" ht="12.75" hidden="1" spans="1:12">
       <c r="A52" s="1" t="s">
         <v>109</v>
       </c>
@@ -3397,7 +3397,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="53" spans="1:12">
+    <row r="53" ht="12.75" hidden="1" spans="1:12">
       <c r="A53" s="1" t="s">
         <v>111</v>
       </c>
@@ -3435,7 +3435,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="54" spans="1:12">
+    <row r="54" ht="12.75" hidden="1" spans="1:12">
       <c r="A54" s="1" t="s">
         <v>112</v>
       </c>
@@ -3473,7 +3473,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="55" spans="1:12">
+    <row r="55" ht="12.75" hidden="1" spans="1:12">
       <c r="A55" s="1" t="s">
         <v>114</v>
       </c>
@@ -3511,7 +3511,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="56" ht="12.75" spans="1:12">
+    <row r="56" ht="12.75" hidden="1" spans="1:12">
       <c r="A56" s="1" t="s">
         <v>116</v>
       </c>
@@ -3625,7 +3625,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="59" ht="12.75" spans="1:12">
+    <row r="59" ht="12.75" hidden="1" spans="1:12">
       <c r="A59" s="1" t="s">
         <v>120</v>
       </c>
@@ -3663,7 +3663,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="60" ht="12.75" spans="1:12">
+    <row r="60" ht="12.75" hidden="1" spans="1:12">
       <c r="A60" s="1" t="s">
         <v>121</v>
       </c>
@@ -3701,7 +3701,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="61" ht="12.75" spans="1:12">
+    <row r="61" ht="12.75" hidden="1" spans="1:12">
       <c r="A61" s="1" t="s">
         <v>122</v>
       </c>
@@ -3739,7 +3739,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="62" spans="1:12">
+    <row r="62" ht="12.75" spans="1:12">
       <c r="A62" s="2" t="s">
         <v>123</v>
       </c>
@@ -3777,7 +3777,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="63" spans="1:12">
+    <row r="63" ht="12.75" spans="1:12">
       <c r="A63" s="1" t="s">
         <v>124</v>
       </c>
@@ -3815,7 +3815,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="64" spans="1:12">
+    <row r="64" ht="12.75" hidden="1" spans="1:12">
       <c r="A64" s="1" t="s">
         <v>125</v>
       </c>
@@ -3853,7 +3853,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="65" spans="1:12">
+    <row r="65" ht="12.75" hidden="1" spans="1:12">
       <c r="A65" s="1" t="s">
         <v>127</v>
       </c>
@@ -3891,7 +3891,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="66" spans="1:12">
+    <row r="66" ht="12.75" hidden="1" spans="1:12">
       <c r="A66" s="1" t="s">
         <v>128</v>
       </c>
@@ -3929,7 +3929,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="67" spans="1:12">
+    <row r="67" ht="12.75" hidden="1" spans="1:12">
       <c r="A67" s="1" t="s">
         <v>130</v>
       </c>
@@ -3967,7 +3967,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="68" ht="12.75" spans="1:12">
+    <row r="68" ht="12.75" hidden="1" spans="1:12">
       <c r="A68" s="1" t="s">
         <v>132</v>
       </c>
@@ -4043,7 +4043,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="70" ht="12.75" spans="1:12">
+    <row r="70" ht="12.75" hidden="1" spans="1:12">
       <c r="A70" s="1" t="s">
         <v>134</v>
       </c>
@@ -4119,7 +4119,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="72" ht="12.75" spans="1:12">
+    <row r="72" ht="12.75" hidden="1" spans="1:12">
       <c r="A72" s="1" t="s">
         <v>138</v>
       </c>
@@ -4271,7 +4271,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="76" ht="12.75" spans="1:12">
+    <row r="76" ht="12.75" hidden="1" spans="1:12">
       <c r="A76" s="1" t="s">
         <v>144</v>
       </c>
@@ -4309,7 +4309,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="77" ht="12.75" spans="1:12">
+    <row r="77" ht="12.75" hidden="1" spans="1:12">
       <c r="A77" s="1" t="s">
         <v>145</v>
       </c>
@@ -4347,7 +4347,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="78" spans="1:12">
+    <row r="78" ht="12.75" hidden="1" spans="1:12">
       <c r="A78" s="1" t="s">
         <v>146</v>
       </c>
@@ -4385,7 +4385,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="79" spans="1:12">
+    <row r="79" ht="12.75" hidden="1" spans="1:12">
       <c r="A79" s="1" t="s">
         <v>147</v>
       </c>
@@ -4423,7 +4423,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="80" spans="1:12">
+    <row r="80" ht="12.75" hidden="1" spans="1:12">
       <c r="A80" s="1" t="s">
         <v>148</v>
       </c>
@@ -4537,7 +4537,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="83" ht="12.75" spans="1:12">
+    <row r="83" ht="12.75" hidden="1" spans="1:12">
       <c r="A83" s="1" t="s">
         <v>151</v>
       </c>
@@ -4575,7 +4575,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="84" spans="1:12">
+    <row r="84" ht="12.75" hidden="1" spans="1:12">
       <c r="A84" s="1" t="s">
         <v>152</v>
       </c>
@@ -4613,7 +4613,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="85" spans="1:12">
+    <row r="85" ht="12.75" hidden="1" spans="1:12">
       <c r="A85" s="1" t="s">
         <v>154</v>
       </c>
@@ -4651,7 +4651,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="86" spans="1:12">
+    <row r="86" ht="12.75" hidden="1" spans="1:12">
       <c r="A86" s="1" t="s">
         <v>155</v>
       </c>
@@ -4689,7 +4689,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="87" spans="1:12">
+    <row r="87" ht="12.75" hidden="1" spans="1:12">
       <c r="A87" s="1" t="s">
         <v>156</v>
       </c>
@@ -4803,7 +4803,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="90" spans="1:12">
+    <row r="90" ht="12.75" spans="1:12">
       <c r="A90" s="1" t="s">
         <v>161</v>
       </c>
@@ -4881,6 +4881,12 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:L91">
+    <filterColumn colId="11">
+      <customFilters>
+        <customFilter operator="equal" val="5"/>
+        <customFilter operator="equal" val="6"/>
+      </customFilters>
+    </filterColumn>
     <extLst/>
   </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
